--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/MISSISSIPPI_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/MISSISSIPPI_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D695"/>
+  <dimension ref="A1:D689"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C20">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C24">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C28">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C30">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C50">
@@ -1400,7 +1400,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C78">
@@ -1592,7 +1592,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1901,7 +1901,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C115">
@@ -1953,12 +1953,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C119">
@@ -1984,7 +1984,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C121">
@@ -2023,7 +2023,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C124">
@@ -2075,7 +2075,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C128">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C132">
@@ -2270,7 +2270,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C143">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C148">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C150">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C153">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C154">
@@ -2496,7 +2496,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C160">
@@ -2509,7 +2509,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C161">
@@ -2522,7 +2522,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C162">
@@ -2613,7 +2613,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C169">
@@ -2665,7 +2665,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C173">
@@ -2756,7 +2756,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C180">
@@ -2782,7 +2782,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C182">
@@ -2808,7 +2808,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C184">
@@ -2821,7 +2821,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C185">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C189">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C193">
@@ -2956,7 +2956,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C195">
@@ -2982,7 +2982,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C197">
@@ -2995,7 +2995,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C198">
@@ -3034,7 +3034,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C201">
@@ -3073,7 +3073,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C204">
@@ -3086,7 +3086,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C205">
@@ -3112,7 +3112,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C207">
@@ -3125,7 +3125,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C208">
@@ -3151,7 +3151,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C210">
@@ -3255,7 +3255,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C218">
@@ -3268,7 +3268,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C219">
@@ -3294,7 +3294,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C221">
@@ -3346,7 +3346,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C225">
@@ -3572,7 +3572,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C242">
@@ -3624,7 +3624,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C246">
@@ -3650,7 +3650,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C248">
@@ -3702,7 +3702,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C252">
@@ -3741,7 +3741,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C255">
@@ -3754,7 +3754,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C256">
@@ -3767,7 +3767,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C257">
@@ -3793,7 +3793,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C259">
@@ -3858,7 +3858,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C264">
@@ -3871,7 +3871,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C265">
@@ -3941,7 +3941,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C270">
@@ -4110,7 +4110,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C283">
@@ -4136,7 +4136,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C285">
@@ -4201,7 +4201,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C290">
@@ -4227,7 +4227,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C292">
@@ -4253,7 +4253,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C294">
@@ -4292,7 +4292,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C297">
@@ -4305,7 +4305,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C298">
@@ -4370,7 +4370,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C303">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C347">
@@ -5004,7 +5004,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C351">
@@ -5030,7 +5030,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C353">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C368">
@@ -5253,7 +5253,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C369">
@@ -5266,7 +5266,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C370">
@@ -5292,7 +5292,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C372">
@@ -5305,7 +5305,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C373">
@@ -5318,7 +5318,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C374">
@@ -5344,7 +5344,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C376">
@@ -5357,7 +5357,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C377">
@@ -5383,7 +5383,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C379">
@@ -5396,7 +5396,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C380">
@@ -5409,7 +5409,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C381">
@@ -5422,7 +5422,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C382">
@@ -5994,7 +5994,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C426">
@@ -6007,7 +6007,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C427">
@@ -6020,7 +6020,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C428">
@@ -6033,7 +6033,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C429">
@@ -6046,7 +6046,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C430">
@@ -6059,7 +6059,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C431">
@@ -6072,7 +6072,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C432">
@@ -6285,7 +6285,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C448">
@@ -6324,7 +6324,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C451">
@@ -6441,7 +6441,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C460">
@@ -6480,7 +6480,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C463">
@@ -6519,7 +6519,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C466">
@@ -6545,7 +6545,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C468">
@@ -6719,7 +6719,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C481">
@@ -6758,7 +6758,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C484">
@@ -6771,7 +6771,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C485">
@@ -6797,7 +6797,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C487">
@@ -6836,7 +6836,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C490">
@@ -6963,7 +6963,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C499">
@@ -7080,7 +7080,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C508">
@@ -7145,7 +7145,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C513">
@@ -7197,7 +7197,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C517">
@@ -7223,7 +7223,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C519">
@@ -7236,7 +7236,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C520">
@@ -7249,7 +7249,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C521">
@@ -7524,7 +7524,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C541">
@@ -7815,7 +7815,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C563">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C570">
@@ -7937,7 +7937,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C572">
@@ -8085,7 +8085,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C583">
@@ -8111,7 +8111,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C585">
@@ -8267,7 +8267,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C597">
@@ -8423,7 +8423,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C609">
@@ -8436,7 +8436,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C610">
@@ -8462,7 +8462,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C612">
@@ -8553,7 +8553,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C619">
@@ -8592,7 +8592,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C622">
@@ -8618,7 +8618,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C624">
@@ -8722,7 +8722,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C632">
@@ -8748,7 +8748,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C634">
@@ -8826,7 +8826,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C640">
@@ -8839,7 +8839,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C641">
@@ -9125,7 +9125,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C663">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C672">
@@ -9408,7 +9408,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C684">
@@ -9481,41 +9481,6 @@
       </c>
       <c r="D689">
         <v>1</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/MISSISSIPPI_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/MISSISSIPPI_2017.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Asientos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>El Llano</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Campeche</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Hopelchén</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Benemérito De Las Américas</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Chapultenango</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Chiapa De Corzo</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>La Independencia</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Larráinzar</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Ostuacán</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Pichucalco</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Sabanilla</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Socoltenango</t>
@@ -1068,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -1081,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Sunuapa</t>
@@ -1094,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -1107,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tapalapa</t>
@@ -1120,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -1133,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -1146,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1159,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tumbalá</t>
@@ -1172,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -1185,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -1198,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1211,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -1224,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -1237,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -1250,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1281,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1294,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1307,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -1320,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -1333,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -1346,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -1359,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1372,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -1385,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -1398,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>San Francisco De Borja</t>
@@ -1411,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1442,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Cuatro Ciénegas</t>
@@ -1455,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -1468,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -1481,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1494,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1507,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1538,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Colima</t>
@@ -1551,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -1564,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -1577,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1608,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1621,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1634,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1647,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1660,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1673,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1686,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1699,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1712,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1725,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1738,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1751,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -1764,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1795,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Cuencamé</t>
@@ -1808,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1821,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -1834,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1847,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1860,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -1873,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Nazas</t>
@@ -1886,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>San Dimas</t>
@@ -1899,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>San Pedro Del Gallo</t>
@@ -1912,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -1925,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Tlahualilo</t>
@@ -1938,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1969,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -1982,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -1995,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -2008,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -2021,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Chapa De Mota</t>
@@ -2034,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -2047,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Coyotepec</t>
@@ -2060,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -2073,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2086,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Ecatzingo</t>
@@ -2099,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -2112,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -2125,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -2138,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -2151,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -2164,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Jocotitlán</t>
@@ -2177,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Joquicingo</t>
@@ -2190,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Lerma</t>
@@ -2203,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -2216,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -2229,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -2242,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Nicolás Romero</t>
@@ -2255,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Otumba</t>
@@ -2268,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2281,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -2294,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -2307,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -2320,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -2333,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -2346,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Tlalmanalco</t>
@@ -2359,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2372,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -2385,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2398,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -2411,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Villa Del Carbón</t>
@@ -2424,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -2437,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -2450,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Zumpango</t>
@@ -2463,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2494,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -2507,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -2520,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -2533,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Atarjea</t>
@@ -2546,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2559,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -2572,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -2585,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -2598,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -2611,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -2624,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -2637,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -2650,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2663,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -2676,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -2689,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>León</t>
@@ -2702,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -2715,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -2728,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2741,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -2754,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>San Diego De La Unión</t>
@@ -2767,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2780,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -2793,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -2806,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -2819,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -2832,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -2845,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2858,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -2871,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2884,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -2897,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Xichú</t>
@@ -2910,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2941,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -2954,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -2967,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -2980,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -2993,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -3006,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -3019,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -3032,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -3045,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -3058,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -3071,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -3084,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -3097,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -3110,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -3123,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -3136,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -3149,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>La Unión De Isidoro Montes De Oca</t>
@@ -3162,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -3175,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -3188,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -3201,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -3214,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Pedro Ascencio Alquisiras</t>
@@ -3227,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -3240,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -3253,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -3266,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -3279,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -3292,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -3305,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Tetipac</t>
@@ -3318,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -3331,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -3344,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -3357,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -3370,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Zapotitlán Tablas</t>
@@ -3383,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -3396,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3427,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -3440,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Ajacuba</t>
@@ -3453,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -3466,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -3479,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Atlapexco</t>
@@ -3492,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -3505,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Eloxochitlán</t>
@@ -3518,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -3531,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -3544,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -3557,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -3570,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Jacala De Ledezma</t>
@@ -3583,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Jaltocán</t>
@@ -3596,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>La Misión</t>
@@ -3609,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -3622,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -3635,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Pacula</t>
@@ -3648,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -3661,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>San Agustín Metzquititlán</t>
@@ -3674,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>San Bartolo Tutotepec</t>
@@ -3687,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -3700,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Santiago De Anaya</t>
@@ -3713,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -3726,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -3739,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -3752,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerrero</t>
@@ -3765,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Tepeji Del Río De Ocampo</t>
@@ -3778,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Tetepango</t>
@@ -3791,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Tezontepec De Aldama</t>
@@ -3804,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Tianguistengo</t>
@@ -3817,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -3830,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -3843,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Tlaxcoapan</t>
@@ -3856,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -3869,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -3882,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Zempoala</t>
@@ -3895,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -3908,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3939,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -3952,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -3965,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Cabo Corrientes</t>
@@ -3978,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -3991,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Chapala</t>
@@ -4004,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Chiquilistlán</t>
@@ -4017,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -4030,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -4043,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Etzatlán</t>
@@ -4056,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -4069,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Hostotipaquillo</t>
@@ -4082,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -4095,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -4108,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Jilotlán De Los Dolores</t>
@@ -4121,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -4134,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -4147,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -4160,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -4173,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -4186,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -4199,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -4212,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -4225,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -4238,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -4251,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -4264,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -4277,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Teuchitlán</t>
@@ -4290,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -4303,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -4316,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -4329,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -4342,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Totatiche</t>
@@ -4355,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Tototlán</t>
@@ -4368,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Unión De San Antonio</t>
@@ -4381,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -4394,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -4407,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4438,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -4451,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Arteaga</t>
@@ -4464,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -4477,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Charo</t>
@@ -4490,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Cherán</t>
@@ -4503,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -4516,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -4529,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Gabriel Zamora</t>
@@ -4542,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -4555,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -4568,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -4581,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Jacona</t>
@@ -4594,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -4607,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -4620,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -4633,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -4646,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -4659,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -4672,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -4685,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -4698,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Nahuatzen</t>
@@ -4711,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -4724,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -4737,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -4750,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Parácuaro</t>
@@ -4763,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -4776,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -4789,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -4802,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -4815,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -4828,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Tumbiscatío</t>
@@ -4841,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -4854,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -4867,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -4880,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -4893,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -4906,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -4919,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -4932,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4963,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -4976,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -4989,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -5002,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Jonacatepec De Leandro Valle</t>
@@ -5015,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Miacatlán</t>
@@ -5028,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Tlaltizapán De Zapata</t>
@@ -5041,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -5054,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -5067,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -5080,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5111,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -5124,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5155,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Galeana</t>
@@ -5168,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>General Terán</t>
@@ -5181,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -5194,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Linares</t>
@@ -5207,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -5220,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5251,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Chalcatongo De Hidalgo</t>
@@ -5264,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Coicoyán De Las Flores</t>
@@ -5277,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -5290,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Guevea De Humboldt</t>
@@ -5303,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -5316,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -5329,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Huautepec</t>
@@ -5342,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -5355,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -5368,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -5381,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -5394,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -5407,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -5420,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -5433,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>San Agustín Chayuco</t>
@@ -5446,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -5459,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>San Bartolo Coyotepec</t>
@@ -5472,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -5485,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>San Felipe Usila</t>
@@ -5498,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -5511,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -5524,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -5537,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>San Juan Lalana</t>
@@ -5550,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>San Juan Quiahije</t>
@@ -5563,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>San Juan Teitipac</t>
@@ -5576,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>San Juan Ñumí</t>
@@ -5589,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>San Marcial Ozolotepec</t>
@@ -5602,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -5615,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>San Miguel Achiutla</t>
@@ -5628,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -5641,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec - Distr. 26 -</t>
@@ -5654,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>San Pedro Yaneri</t>
@@ -5667,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>San Simón Almolongas</t>
@@ -5680,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -5693,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Santa Catarina Minas</t>
@@ -5706,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Santa Cruz Xoxocotlán</t>
@@ -5719,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Santa María Huatulco</t>
@@ -5732,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Santa María Ipalapa</t>
@@ -5745,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Santa María Ozolotepec</t>
@@ -5758,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Santa María Sola</t>
@@ -5771,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Santa María Teopoxco</t>
@@ -5784,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Santa María Totolapilla</t>
@@ -5797,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Santiago Huajolotitlán</t>
@@ -5810,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -5823,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -5836,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -5849,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Santiago Matatlán</t>
@@ -5862,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -5875,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Santiago Tamazola</t>
@@ -5888,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Santiago Tetepec</t>
@@ -5901,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Santiago Yaitepec</t>
@@ -5914,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Santo Domingo Petapa</t>
@@ -5927,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -5940,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -5953,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -5966,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Santos Reyes Yucuná</t>
@@ -5979,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -5992,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Teotitlán De Flores Magón</t>
@@ -6005,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
@@ -6018,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -6031,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -6044,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Villa De Tututepec</t>
@@ -6057,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Villa De Zaachila</t>
@@ -6070,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Villa Sola De Vega</t>
@@ -6083,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6114,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Acatlán</t>
@@ -6127,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -6140,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Atexcal</t>
@@ -6153,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Atzitzihuacán</t>
@@ -6166,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Chiconcuautla</t>
@@ -6179,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -6192,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Coxcatlán</t>
@@ -6205,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Cuautinchán</t>
@@ -6218,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -6231,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Eloxochitlán</t>
@@ -6244,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -6257,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -6270,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -6283,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -6296,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Jalpan</t>
@@ -6309,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -6322,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -6335,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Ocoyucan</t>
@@ -6348,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -6361,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -6374,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -6387,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -6400,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>San José Chiapa</t>
@@ -6413,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -6426,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -6439,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>San Salvador El Seco</t>
@@ -6452,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>San Salvador Huixcolotla</t>
@@ -6465,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Santa Inés Ahuatempan</t>
@@ -6478,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Tecali De Herrera</t>
@@ -6491,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -6504,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -6517,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -6530,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -6543,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -6556,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Tlacuilotepec</t>
@@ -6569,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -6582,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -6595,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -6608,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -6621,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -6634,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -6647,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Zihuateutla</t>
@@ -6660,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Zinacatepec</t>
@@ -6673,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Zoquitlán</t>
@@ -6686,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6717,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -6730,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -6743,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -6756,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -6769,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -6782,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Peñamiller</t>
@@ -6795,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -6808,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -6821,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>San Joaquín</t>
@@ -6834,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -6847,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6878,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6909,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Alaquines</t>
@@ -6922,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Aquismón</t>
@@ -6935,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -6948,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Cerritos</t>
@@ -6961,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>Cerro De San Pedro</t>
@@ -6974,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -6987,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -7000,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -7013,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -7026,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -7039,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -7052,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -7065,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -7078,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -7091,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -7104,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>San Nicolás Tolentino</t>
@@ -7117,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>San Vicente Tancuayalab</t>
@@ -7130,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>Santa Catarina</t>
@@ -7143,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -7156,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -7169,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Tamuín</t>
@@ -7182,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Tancanhuitz</t>
@@ -7195,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Tanquián De Escobedo</t>
@@ -7208,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Tierra Nueva</t>
@@ -7221,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Villa De Guadalupe</t>
@@ -7234,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Villa De La Paz</t>
@@ -7247,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -7260,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>Villa Juárez</t>
@@ -7273,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -7286,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -7299,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7330,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -7343,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -7356,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -7369,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7400,6 +9920,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -7413,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7444,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -7457,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -7470,6 +10010,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -7483,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -7496,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -7509,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -7522,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>Jalpa De Méndez</t>
@@ -7535,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -7548,6 +10118,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>Tacotalpa</t>
@@ -7561,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -7574,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7605,6 +10190,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>Altamira</t>
@@ -7618,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>Antiguo Morelos</t>
@@ -7631,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>Bustamante</t>
@@ -7644,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -7657,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -7670,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>González</t>
@@ -7683,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -7696,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Llera</t>
@@ -7709,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -7722,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Mier</t>
@@ -7735,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>Miguel Alemán</t>
@@ -7748,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -7761,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Nuevo Morelos</t>
@@ -7774,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -7787,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -7800,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>San Fernando</t>
@@ -7813,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>Soto La Marina</t>
@@ -7826,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -7839,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -7852,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -7865,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -7878,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Xicoténcatl</t>
@@ -7891,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7922,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -7935,6 +10640,11 @@
       </c>
     </row>
     <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -7948,6 +10658,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -7961,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -7974,6 +10694,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>Xicohtzinco</t>
@@ -7987,6 +10712,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -8000,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8031,6 +10766,11 @@
       </c>
     </row>
     <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
           <t>Acayucan</t>
@@ -8044,6 +10784,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -8057,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Acultzingo</t>
@@ -8070,6 +10820,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Alpatláhuac</t>
@@ -8083,6 +10838,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Alto Lucero De Gutiérrez Barrios</t>
@@ -8096,6 +10856,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -8109,6 +10874,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Amatlán De Los Reyes</t>
@@ -8122,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -8135,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Astacinga</t>
@@ -8148,6 +10928,11 @@
       </c>
     </row>
     <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
           <t>Atlahuilco</t>
@@ -8161,6 +10946,11 @@
       </c>
     </row>
     <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -8174,6 +10964,11 @@
       </c>
     </row>
     <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -8187,6 +10982,11 @@
       </c>
     </row>
     <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
           <t>Carlos A. Carrillo</t>
@@ -8200,6 +11000,11 @@
       </c>
     </row>
     <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B592" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -8213,6 +11018,11 @@
       </c>
     </row>
     <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -8226,6 +11036,11 @@
       </c>
     </row>
     <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -8239,6 +11054,11 @@
       </c>
     </row>
     <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
           <t>Colipa</t>
@@ -8252,6 +11072,11 @@
       </c>
     </row>
     <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -8265,6 +11090,11 @@
       </c>
     </row>
     <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -8278,6 +11108,11 @@
       </c>
     </row>
     <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -8291,6 +11126,11 @@
       </c>
     </row>
     <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -8304,6 +11144,11 @@
       </c>
     </row>
     <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B600" t="inlineStr">
         <is>
           <t>Cuichapa</t>
@@ -8317,6 +11162,11 @@
       </c>
     </row>
     <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B601" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -8330,6 +11180,11 @@
       </c>
     </row>
     <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -8343,6 +11198,11 @@
       </c>
     </row>
     <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B603" t="inlineStr">
         <is>
           <t>Filomeno Mata</t>
@@ -8356,6 +11216,11 @@
       </c>
     </row>
     <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B604" t="inlineStr">
         <is>
           <t>Fortín</t>
@@ -8369,6 +11234,11 @@
       </c>
     </row>
     <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B605" t="inlineStr">
         <is>
           <t>Gutiérrez Zamora</t>
@@ -8382,6 +11252,11 @@
       </c>
     </row>
     <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B606" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -8395,6 +11270,11 @@
       </c>
     </row>
     <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B607" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -8408,6 +11288,11 @@
       </c>
     </row>
     <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B608" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -8421,6 +11306,11 @@
       </c>
     </row>
     <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B609" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -8434,6 +11324,11 @@
       </c>
     </row>
     <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B610" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -8447,6 +11342,11 @@
       </c>
     </row>
     <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B611" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -8460,6 +11360,11 @@
       </c>
     </row>
     <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B612" t="inlineStr">
         <is>
           <t>Ixhuatlán De Madero</t>
@@ -8473,6 +11378,11 @@
       </c>
     </row>
     <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B613" t="inlineStr">
         <is>
           <t>Ixmatlahuacan</t>
@@ -8486,6 +11396,11 @@
       </c>
     </row>
     <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B614" t="inlineStr">
         <is>
           <t>Jalacingo</t>
@@ -8499,6 +11414,11 @@
       </c>
     </row>
     <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B615" t="inlineStr">
         <is>
           <t>Jáltipan</t>
@@ -8512,6 +11432,11 @@
       </c>
     </row>
     <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B616" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -8525,6 +11450,11 @@
       </c>
     </row>
     <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B617" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -8538,6 +11468,11 @@
       </c>
     </row>
     <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B618" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -8551,6 +11486,11 @@
       </c>
     </row>
     <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B619" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -8564,6 +11504,11 @@
       </c>
     </row>
     <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B620" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -8577,6 +11522,11 @@
       </c>
     </row>
     <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B621" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -8590,6 +11540,11 @@
       </c>
     </row>
     <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B622" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -8603,6 +11558,11 @@
       </c>
     </row>
     <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B623" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -8616,6 +11576,11 @@
       </c>
     </row>
     <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B624" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -8629,6 +11594,11 @@
       </c>
     </row>
     <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B625" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -8642,6 +11612,11 @@
       </c>
     </row>
     <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B626" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -8655,6 +11630,11 @@
       </c>
     </row>
     <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B627" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -8668,6 +11648,11 @@
       </c>
     </row>
     <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B628" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -8681,6 +11666,11 @@
       </c>
     </row>
     <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B629" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -8694,6 +11684,11 @@
       </c>
     </row>
     <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B630" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -8707,6 +11702,11 @@
       </c>
     </row>
     <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B631" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -8720,6 +11720,11 @@
       </c>
     </row>
     <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B632" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -8733,6 +11738,11 @@
       </c>
     </row>
     <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B633" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -8746,6 +11756,11 @@
       </c>
     </row>
     <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B634" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -8759,6 +11774,11 @@
       </c>
     </row>
     <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B635" t="inlineStr">
         <is>
           <t>Puente Nacional</t>
@@ -8772,6 +11792,11 @@
       </c>
     </row>
     <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B636" t="inlineStr">
         <is>
           <t>Río Blanco</t>
@@ -8785,6 +11810,11 @@
       </c>
     </row>
     <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B637" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -8798,6 +11828,11 @@
       </c>
     </row>
     <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B638" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -8811,6 +11846,11 @@
       </c>
     </row>
     <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B639" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -8824,6 +11864,11 @@
       </c>
     </row>
     <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B640" t="inlineStr">
         <is>
           <t>Sayula De Alemán</t>
@@ -8837,6 +11882,11 @@
       </c>
     </row>
     <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B641" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -8850,6 +11900,11 @@
       </c>
     </row>
     <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B642" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -8863,6 +11918,11 @@
       </c>
     </row>
     <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B643" t="inlineStr">
         <is>
           <t>Tamiahua</t>
@@ -8876,6 +11936,11 @@
       </c>
     </row>
     <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B644" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -8889,6 +11954,11 @@
       </c>
     </row>
     <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B645" t="inlineStr">
         <is>
           <t>Tatatila</t>
@@ -8902,6 +11972,11 @@
       </c>
     </row>
     <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B646" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -8915,6 +11990,11 @@
       </c>
     </row>
     <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B647" t="inlineStr">
         <is>
           <t>Tehuipango</t>
@@ -8928,6 +12008,11 @@
       </c>
     </row>
     <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B648" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -8941,6 +12026,11 @@
       </c>
     </row>
     <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B649" t="inlineStr">
         <is>
           <t>Tempoal</t>
@@ -8954,6 +12044,11 @@
       </c>
     </row>
     <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B650" t="inlineStr">
         <is>
           <t>Tenochtitlán</t>
@@ -8967,6 +12062,11 @@
       </c>
     </row>
     <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B651" t="inlineStr">
         <is>
           <t>Teocelo</t>
@@ -8980,6 +12080,11 @@
       </c>
     </row>
     <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B652" t="inlineStr">
         <is>
           <t>Tepatlaxco</t>
@@ -8993,6 +12098,11 @@
       </c>
     </row>
     <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B653" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -9006,6 +12116,11 @@
       </c>
     </row>
     <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B654" t="inlineStr">
         <is>
           <t>Texistepec</t>
@@ -9019,6 +12134,11 @@
       </c>
     </row>
     <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B655" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -9032,6 +12152,11 @@
       </c>
     </row>
     <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B656" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -9045,6 +12170,11 @@
       </c>
     </row>
     <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B657" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -9058,6 +12188,11 @@
       </c>
     </row>
     <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B658" t="inlineStr">
         <is>
           <t>Tlacojalpan</t>
@@ -9071,6 +12206,11 @@
       </c>
     </row>
     <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B659" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -9084,6 +12224,11 @@
       </c>
     </row>
     <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B660" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -9097,6 +12242,11 @@
       </c>
     </row>
     <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B661" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -9110,6 +12260,11 @@
       </c>
     </row>
     <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B662" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -9123,6 +12278,11 @@
       </c>
     </row>
     <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B663" t="inlineStr">
         <is>
           <t>Vega De Alatorre</t>
@@ -9136,6 +12296,11 @@
       </c>
     </row>
     <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B664" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -9149,6 +12314,11 @@
       </c>
     </row>
     <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B665" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -9162,6 +12332,11 @@
       </c>
     </row>
     <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B666" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -9175,6 +12350,11 @@
       </c>
     </row>
     <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B667" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -9188,6 +12368,11 @@
       </c>
     </row>
     <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B668" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -9201,6 +12386,11 @@
       </c>
     </row>
     <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B669" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9232,6 +12422,11 @@
       </c>
     </row>
     <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B671" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9263,6 +12458,11 @@
       </c>
     </row>
     <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B673" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -9276,6 +12476,11 @@
       </c>
     </row>
     <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B674" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -9289,6 +12494,11 @@
       </c>
     </row>
     <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B675" t="inlineStr">
         <is>
           <t>General Pánfilo Natera</t>
@@ -9302,6 +12512,11 @@
       </c>
     </row>
     <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B676" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -9315,6 +12530,11 @@
       </c>
     </row>
     <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B677" t="inlineStr">
         <is>
           <t>Huanusco</t>
@@ -9328,6 +12548,11 @@
       </c>
     </row>
     <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B678" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -9341,6 +12566,11 @@
       </c>
     </row>
     <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B679" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -9354,6 +12584,11 @@
       </c>
     </row>
     <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B680" t="inlineStr">
         <is>
           <t>Mazapil</t>
@@ -9367,6 +12602,11 @@
       </c>
     </row>
     <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B681" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -9380,6 +12620,11 @@
       </c>
     </row>
     <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B682" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -9393,6 +12638,11 @@
       </c>
     </row>
     <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B683" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -9406,6 +12656,11 @@
       </c>
     </row>
     <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B684" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -9419,6 +12674,11 @@
       </c>
     </row>
     <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B685" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -9432,6 +12692,11 @@
       </c>
     </row>
     <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B686" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -9445,6 +12710,11 @@
       </c>
     </row>
     <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B687" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -9458,6 +12728,11 @@
       </c>
     </row>
     <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B688" t="inlineStr">
         <is>
           <t>Total</t>
